--- a/artfynd/A 50145-2022 artfynd.xlsx
+++ b/artfynd/A 50145-2022 artfynd.xlsx
@@ -7757,7 +7757,7 @@
         <v>118727582</v>
       </c>
       <c r="B71" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
